--- a/极睿导出/Layer_New.xlsx
+++ b/极睿导出/Layer_New.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7200" yWindow="1545" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Layer" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="自201H2-4_VDL_20200417(10-5145)L" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2643</v>
+        <v>3258</v>
       </c>
       <c r="C2" s="0" t="n"/>
       <c r="D2" s="0" t="inlineStr">
@@ -1005,11 +1005,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2962</v>
+        <v>3379.4</v>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>石牛栏组</t>
+          <t>龙一^14</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -1023,11 +1023,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3207</v>
+        <v>3493.7</v>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>龙二</t>
+          <t>龙一^13</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
@@ -1041,11 +1041,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3395</v>
+        <v>3720.7</v>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>龙一^2</t>
+          <t>龙一^12</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -1059,11 +1059,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3498</v>
+        <v>3753.3</v>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>龙一^１4</t>
+          <t>龙一^11</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
@@ -1077,11 +1077,11 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3536</v>
+        <v>3827.2</v>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>龙一^１3</t>
+          <t>五峰组</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -1095,11 +1095,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>4854</v>
+        <v>4641.3</v>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>龙一^１2</t>
+          <t>龙一^11</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -1113,11 +1113,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5048</v>
+        <v>5073.4</v>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>龙一^１1</t>
+          <t>龙一^12</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -1128,19 +1128,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>5090</v>
+        <v>5200</v>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>龙一^１2</t>
+          <t>龙一^11</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>虚线底界</t>
+          <t>实线底界</t>
         </is>
       </c>
     </row>
